--- a/Reinforcement_Learning_(textbook)/RL math.xlsx
+++ b/Reinforcement_Learning_(textbook)/RL math.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\ML\reinforcement-learning-specialization\Reinforcement_Learning_(textbook)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0AB03-799F-43D2-8518-0CE10F19BEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B6722B-DC0F-44F5-AF57-7EB89B95FD83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E1B4546-630D-4D99-AC4A-6A30A655BEA6}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>-0.67500000000000004</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:M2" si="0">0*0.25*0.9+-1*0.25*0.9*3</f>
+        <f t="shared" ref="G2" si="0">0*0.25*0.9+-1*0.25*0.9*3</f>
         <v>-0.67500000000000004</v>
       </c>
       <c r="K2" t="s">
